--- a/target/test-classes/test-data.xlsx
+++ b/target/test-classes/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\automation-demo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BC5B6-F89A-4973-A96C-C1322D13A6C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1BA43C-71A9-4E24-8A6A-2E13FBE2B896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F8F7F14F-7D32-4084-8087-EB1A2E99B0B6}"/>
   </bookViews>
@@ -402,9 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5872D6A5-5E0D-4E24-B23C-9B284E63C6BA}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
